--- a/Gestão do Projeto/EquipeHSL/EquipeHSL.xlsx
+++ b/Gestão do Projeto/EquipeHSL/EquipeHSL.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/Documents/GitHub/ips-brasil-documentos/Gestão do Projeto/EquipeHSL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\ips-brasil-documentos\Gestão do Projeto\EquipeHSL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD8AE939-E99E-C641-A955-16F1A20AE38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="1160" windowWidth="26040" windowHeight="16900" xr2:uid="{AC755E16-9FEF-C940-B91C-1B4E31DF9678}"/>
+    <workbookView xWindow="3060" yWindow="1164" windowWidth="26040" windowHeight="16896"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Fábio de Cerqueira Lario</t>
   </si>
@@ -111,6 +110,66 @@
   </si>
   <si>
     <t>Especialista em Projetos</t>
+  </si>
+  <si>
+    <t>jose.rangel@hsl.org.br</t>
+  </si>
+  <si>
+    <t>11-94247-2528</t>
+  </si>
+  <si>
+    <t>Líder Técnico</t>
+  </si>
+  <si>
+    <t>Vinícius Cézar da Silva Moreira</t>
+  </si>
+  <si>
+    <t>298.992.268-74</t>
+  </si>
+  <si>
+    <t>364.866.038-10</t>
+  </si>
+  <si>
+    <t>11-95020-2028</t>
+  </si>
+  <si>
+    <t>Analista de negócios pleno</t>
+  </si>
+  <si>
+    <t>Olusegun Cid Symed Akognon</t>
+  </si>
+  <si>
+    <t>705.859.301-98</t>
+  </si>
+  <si>
+    <t>(11) 94226 1456</t>
+  </si>
+  <si>
+    <t>Analista de negócios</t>
+  </si>
+  <si>
+    <t>Lucas Eduardo Schoenfelder</t>
+  </si>
+  <si>
+    <t>099.435.639-07</t>
+  </si>
+  <si>
+    <t>lucas.schoenfelder@hsl.org.br</t>
+  </si>
+  <si>
+    <t>(41)98902-3866</t>
+  </si>
+  <si>
+    <t>Analista de desenvolvimento pleno</t>
+  </si>
+  <si>
+    <t>Aline Rodrigues Zamarro</t>
+  </si>
+  <si>
+    <t>IPS - Brasil   RH  HSL  (Autalizado maio 23)</t>
+  </si>
+  <si>
+    <t>11-986467214</t>
   </si>
   <si>
     <r>
@@ -122,41 +181,10 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>José Augusto Chaves Rangel</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>084.965.857-86</t>
-    </r>
-  </si>
-  <si>
-    <t>jose.rangel@hsl.org.br</t>
-  </si>
-  <si>
-    <t>11-94247-2528</t>
-  </si>
-  <si>
-    <t>Líder Técnico</t>
-  </si>
-  <si>
-    <t>Vinícius Cézar da Silva Moreira</t>
-  </si>
-  <si>
-    <t>298.992.268-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vinicius.moreira@hsl.org.br</t>
   </si>
   <si>
     <r>
@@ -170,81 +198,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>27 98856-3782</t>
+      <t>084.965.857-86</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 13/05/1980</t>
-    </r>
-  </si>
-  <si>
-    <t>364.866.038-10</t>
-  </si>
-  <si>
-    <t>Aline.Zamarro@hsl.org.br</t>
-  </si>
-  <si>
-    <t>11-95020-2028</t>
-  </si>
-  <si>
-    <t>Analista de negócios pleno</t>
-  </si>
-  <si>
-    <t>Olusegun Cid Symed Akognon</t>
-  </si>
-  <si>
-    <t>705.859.301-98</t>
-  </si>
-  <si>
-    <t>Olusegun.csakognon@hsl.org.br</t>
-  </si>
-  <si>
-    <t>(11) 94226 1456</t>
-  </si>
-  <si>
-    <t>Analista de negócios</t>
-  </si>
-  <si>
-    <t>Lucas Eduardo Schoenfelder</t>
-  </si>
-  <si>
-    <t>099.435.639-07</t>
-  </si>
-  <si>
-    <t>lucas.schoenfelder@hsl.org.br</t>
-  </si>
-  <si>
-    <t>(41)98902-3866</t>
-  </si>
-  <si>
-    <t>Analista de desenvolvimento pleno</t>
-  </si>
-  <si>
-    <t>Aline Rodrigues Zamarro</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Analista de negócios</t>
-  </si>
-  <si>
-    <t>IPS - Brasil   RH  HSL  (Autalizado maio 23)</t>
+    <t>vinicius.moreira@hsl.org.br</t>
+  </si>
+  <si>
+    <t>olusegun.csakognon@hsl.org.br</t>
+  </si>
+  <si>
+    <t>aline.Zamarro@hsl.org.br</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -259,31 +230,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color rgb="FF242424"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FF242424"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -291,8 +237,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF242424"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -336,44 +297,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -685,238 +644,241 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C65DC7-CFE2-6744-A5BE-8FE06F4D54FF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
-    <col min="2" max="2" width="16.33203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.296875" customWidth="1"/>
+    <col min="3" max="3" width="33.19921875" customWidth="1"/>
     <col min="4" max="4" width="19.5" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="5">
+        <v>32206</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7">
+        <v>19567</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="7">
+        <v>27440</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7">
+        <v>31387</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7">
+        <v>31322</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="7">
+        <v>31536</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>29884</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="5">
+        <v>35700</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="E12" s="5">
+        <v>32369</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="8">
-        <v>32206</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4">
-        <v>19567</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="4">
-        <v>27440</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="4">
-        <v>31387</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="4">
-        <v>31322</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="4">
-        <v>31536</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
+    </row>
+    <row r="13" spans="1:6" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4">
-        <v>29884</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
+      <c r="C13" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="8">
-        <v>35700</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="8">
-        <v>32369</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" s="7">
+        <v>29574</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:F15">
+  <sortState ref="A7:F15">
     <sortCondition ref="A6:A15"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" tooltip="mailto:fabio.clario@hsl.org.br" display="mailto:fabio.clario@hsl.org.br" xr:uid="{E3DBCAB3-87F6-ED44-82DA-6DE7892FFF2C}"/>
-    <hyperlink ref="C5" r:id="rId2" display="mailto:beatriz.leao@hsl.org.br" xr:uid="{08EE2211-C6D4-1445-93A4-89DBD004FC03}"/>
+    <hyperlink ref="C6" r:id="rId1" tooltip="mailto:fabio.clario@hsl.org.br" display="mailto:fabio.clario@hsl.org.br"/>
+    <hyperlink ref="C5" r:id="rId2" display="mailto:beatriz.leao@hsl.org.br"/>
+    <hyperlink ref="C13" r:id="rId3"/>
+    <hyperlink ref="C12" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
